--- a/results/Goalkeeper_analysis.xlsx
+++ b/results/Goalkeeper_analysis.xlsx
@@ -38,7 +38,7 @@
       <color rgb="00F1F1F1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill/>
     </fill>
@@ -67,6 +67,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00E5F5F9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="0065C2A3"/>
       </patternFill>
     </fill>
@@ -77,7 +82,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EAB5B9"/>
+        <fgColor rgb="0098D8C9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2F1F1"/>
       </patternFill>
     </fill>
     <fill>
@@ -88,11 +98,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00DA3B46"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B2CFBF"/>
       </patternFill>
     </fill>
   </fills>
@@ -114,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -122,13 +127,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -590,22 +596,22 @@
         <v>2.773342730747337</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>3.5</v>
+        <v>3.428571428571428</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1138660109272229</v>
+        <v>-0.1396214181607615</v>
       </c>
       <c r="H2" t="n">
-        <v>1.132212428697982</v>
+        <v>1.048225023700889</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2789136258178699</v>
+        <v>-0.3694035501515322</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3957396270111695</v>
+        <v>0.3622567178255499</v>
       </c>
       <c r="K2" s="3" t="b">
         <v>0</v>
@@ -619,7 +625,7 @@
         <v>5.5</v>
       </c>
       <c r="N2" s="5" t="n">
-        <v>3.166666666666667</v>
+        <v>3.142857142857143</v>
       </c>
     </row>
     <row r="3">
@@ -638,36 +644,36 @@
         <v>2.521157175606921</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>4.166666666666667</v>
+        <v>3.714285714285714</v>
       </c>
       <c r="G3" t="n">
-        <v>0.18788364926605</v>
+        <v>0.008449793750060434</v>
       </c>
       <c r="H3" t="n">
-        <v>1.029258106932227</v>
+        <v>0.9529078432517016</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4602190717138616</v>
+        <v>0.02235605289244778</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3323400983383237</v>
+        <v>0.4914444373324912</v>
       </c>
       <c r="K3" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="L3" s="4" t="inlineStr">
-        <is>
-          <t>Very small</t>
+      <c r="L3" s="7" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
       <c r="M3" s="2" t="n">
         <v>5.6</v>
       </c>
-      <c r="N3" s="7" t="n">
-        <v>2.833333333333333</v>
+      <c r="N3" s="8" t="n">
+        <v>2.857142857142857</v>
       </c>
     </row>
     <row r="4">
@@ -686,22 +692,22 @@
         <v>2.74465988689616</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>3.166666666666667</v>
+        <v>3.142857142857143</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1166539577909475</v>
+        <v>-0.125328811794971</v>
       </c>
       <c r="H4" t="n">
-        <v>1.120502706730097</v>
+        <v>1.037383927740272</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2857426730639878</v>
+        <v>-0.3315888681207119</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3932674101284482</v>
+        <v>0.3757377817414266</v>
       </c>
       <c r="K4" s="3" t="b">
         <v>0</v>
@@ -714,8 +720,8 @@
       <c r="M4" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="N4" s="5" t="n">
-        <v>3.166666666666667</v>
+      <c r="N4" s="9" t="n">
+        <v>3.428571428571428</v>
       </c>
     </row>
     <row r="5">
@@ -734,22 +740,22 @@
         <v>2.454507685896973</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>3.5</v>
+        <v>3.857142857142857</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05003325850209393</v>
+        <v>0.1955381429214488</v>
       </c>
       <c r="H5" t="n">
-        <v>1.002048566697852</v>
+        <v>0.927716703997147</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1225559534988983</v>
+        <v>0.5173452979975585</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4536161930980527</v>
+        <v>0.3117133996820917</v>
       </c>
       <c r="K5" s="3" t="b">
         <v>0</v>
@@ -762,8 +768,8 @@
       <c r="M5" s="2" t="n">
         <v>5.5</v>
       </c>
-      <c r="N5" s="8" t="n">
-        <v>3.333333333333333</v>
+      <c r="N5" s="5" t="n">
+        <v>3.142857142857143</v>
       </c>
     </row>
     <row r="6">
@@ -782,36 +788,36 @@
         <v>2.229166789741284</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>1.833333333333333</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.6305516151741818</v>
+        <v>-0.7480415953363025</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9100535310706968</v>
+        <v>0.8425458509342351</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.544529713664524</v>
+        <v>-1.979132031591871</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09155812466680041</v>
+        <v>0.04756915711966781</v>
       </c>
       <c r="K6" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="L6" s="9" t="inlineStr">
+      <c r="L6" s="10" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>3.166666666666667</v>
+        <v>3.142857142857143</v>
       </c>
     </row>
     <row r="7">
@@ -830,7 +836,7 @@
         <v>2.436716506112223</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>0</v>
@@ -839,18 +845,18 @@
         <v>-1.317562509933444</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9947853479653923</v>
+        <v>0.9209922701055917</v>
       </c>
       <c r="I7" t="n">
-        <v>-3.227355853557631</v>
+        <v>-3.485942738065964</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01163710585398571</v>
-      </c>
-      <c r="K7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="10" t="inlineStr">
+        <v>0.006523834583348492</v>
+      </c>
+      <c r="K7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="11" t="inlineStr">
         <is>
           <t>Very large</t>
         </is>
@@ -858,8 +864,8 @@
       <c r="M7" s="2" t="n">
         <v>4.3</v>
       </c>
-      <c r="N7" s="8" t="n">
-        <v>3.333333333333333</v>
+      <c r="N7" s="5" t="n">
+        <v>3.142857142857143</v>
       </c>
     </row>
     <row r="8">
@@ -878,36 +884,36 @@
         <v>2.604842847254027</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>2.666666666666667</v>
+        <v>2.571428571428572</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1885826128410324</v>
+        <v>-0.2251445479836814</v>
       </c>
       <c r="H8" t="n">
-        <v>1.063422639318478</v>
+        <v>0.9845380540342235</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.4619311758213601</v>
+        <v>-0.5956764830068697</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3317664929379632</v>
+        <v>0.2865795267040163</v>
       </c>
       <c r="K8" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="L8" s="4" t="inlineStr">
-        <is>
-          <t>Very small</t>
+      <c r="L8" s="12" t="inlineStr">
+        <is>
+          <t>Small</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
         <v>4.9</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>3.166666666666667</v>
+        <v>3.142857142857143</v>
       </c>
     </row>
     <row r="9">
@@ -926,7 +932,7 @@
         <v>2.458789353760655</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>0</v>
@@ -935,27 +941,27 @@
         <v>-1.284329107742469</v>
       </c>
       <c r="H9" t="n">
-        <v>1.003796550283534</v>
+        <v>0.9293350223348444</v>
       </c>
       <c r="I9" t="n">
-        <v>-3.145950975773049</v>
+        <v>-3.398015420648054</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01274744108367768</v>
-      </c>
-      <c r="K9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="10" t="inlineStr">
+        <v>0.007265699366264177</v>
+      </c>
+      <c r="K9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="11" t="inlineStr">
         <is>
           <t>Very large</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="N9" s="11" t="n">
-        <v>3</v>
+        <v>4.8</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>3.142857142857143</v>
       </c>
     </row>
     <row r="10">
@@ -974,36 +980,36 @@
         <v>2.414284972786884</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>1.333333333333333</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.7339356557051383</v>
+        <v>-0.4578014486081555</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9856277128328395</v>
+        <v>0.912513947433491</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.797767860512582</v>
+        <v>-1.211228782862296</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0660683831756089</v>
+        <v>0.1356721871696142</v>
       </c>
       <c r="K10" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="L10" s="9" t="inlineStr">
-        <is>
-          <t>Medium</t>
+      <c r="L10" s="12" t="inlineStr">
+        <is>
+          <t>Small</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
         <v>4.8</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>3.166666666666667</v>
+        <v>3.142857142857143</v>
       </c>
     </row>
     <row r="11">
@@ -1022,27 +1028,27 @@
         <v>2.240333995992646</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>1.666666666666667</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.5246711421572725</v>
+        <v>-0.5671818103917637</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9146125239320727</v>
+        <v>0.8467666581600165</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.285176581048574</v>
+        <v>-1.500622018455997</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1275198629125281</v>
+        <v>0.09206230105601441</v>
       </c>
       <c r="K11" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="L11" s="9" t="inlineStr">
+      <c r="L11" s="10" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
@@ -1050,8 +1056,8 @@
       <c r="M11" s="2" t="n">
         <v>4.4</v>
       </c>
-      <c r="N11" s="11" t="n">
-        <v>3</v>
+      <c r="N11" s="8" t="n">
+        <v>2.857142857142857</v>
       </c>
     </row>
   </sheetData>

--- a/results/Goalkeeper_analysis.xlsx
+++ b/results/Goalkeeper_analysis.xlsx
@@ -67,12 +67,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E5F5F9"/>
+        <fgColor rgb="0098D8C9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0065C2A3"/>
+        <fgColor rgb="0040AD75"/>
       </patternFill>
     </fill>
     <fill>
@@ -82,7 +82,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0098D8C9"/>
+        <fgColor rgb="0094BCA7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DA3B46"/>
       </patternFill>
     </fill>
     <fill>
@@ -93,11 +98,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="003A855E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DA3B46"/>
       </patternFill>
     </fill>
   </fills>
@@ -127,14 +127,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -596,22 +596,22 @@
         <v>2.773342730747337</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>3.428571428571428</v>
+        <v>3.7</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1396214181607615</v>
+        <v>-0.04175087067331504</v>
       </c>
       <c r="H2" t="n">
-        <v>1.048225023700889</v>
+        <v>0.8770079761432673</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3694035501515322</v>
+        <v>-0.1320278456228033</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3622567178255499</v>
+        <v>0.4489333887073165</v>
       </c>
       <c r="K2" s="3" t="b">
         <v>0</v>
@@ -625,7 +625,7 @@
         <v>5.5</v>
       </c>
       <c r="N2" s="5" t="n">
-        <v>3.142857142857143</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="3">
@@ -644,36 +644,36 @@
         <v>2.521157175606921</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
-      </c>
-      <c r="F3" s="6" t="n">
-        <v>3.714285714285714</v>
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>3.4</v>
       </c>
       <c r="G3" t="n">
-        <v>0.008449793750060434</v>
+        <v>-0.1162095163978902</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9529078432517016</v>
+        <v>0.7972599014194974</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02235605289244778</v>
+        <v>-0.3674867576040192</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4914444373324912</v>
+        <v>0.3608745141689938</v>
       </c>
       <c r="K3" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="L3" s="7" t="inlineStr">
-        <is>
-          <t>None</t>
+      <c r="L3" s="4" t="inlineStr">
+        <is>
+          <t>Very small</t>
         </is>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="N3" s="8" t="n">
-        <v>2.857142857142857</v>
+        <v>5.5</v>
+      </c>
+      <c r="N3" s="5" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="4">
@@ -692,36 +692,36 @@
         <v>2.74465988689616</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>3.142857142857143</v>
+        <v>2.9</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.125328811794971</v>
+        <v>-0.2138123226360106</v>
       </c>
       <c r="H4" t="n">
-        <v>1.037383927740272</v>
+        <v>0.8679376645091995</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3315888681207119</v>
+        <v>-0.6761339313405703</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3757377817414266</v>
+        <v>0.2579762689268299</v>
       </c>
       <c r="K4" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="L4" s="4" t="inlineStr">
-        <is>
-          <t>Very small</t>
+      <c r="L4" s="6" t="inlineStr">
+        <is>
+          <t>Small</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="N4" s="9" t="n">
-        <v>3.428571428571428</v>
+      <c r="N4" s="7" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="5">
@@ -740,22 +740,22 @@
         <v>2.454507685896973</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>3.857142857142857</v>
+        <v>10</v>
+      </c>
+      <c r="F5" s="8" t="n">
+        <v>3.7</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1955381429214488</v>
+        <v>0.1315159937769327</v>
       </c>
       <c r="H5" t="n">
-        <v>0.927716703997147</v>
+        <v>0.7761834821823581</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5173452979975585</v>
+        <v>0.415890089075638</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3117133996820917</v>
+        <v>0.3436159488437897</v>
       </c>
       <c r="K5" s="3" t="b">
         <v>0</v>
@@ -769,7 +769,7 @@
         <v>5.5</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>3.142857142857143</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="6">
@@ -788,36 +788,36 @@
         <v>2.229166789741284</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>1.571428571428571</v>
+        <v>1.1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.7480415953363025</v>
+        <v>-0.9595235596281199</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8425458509342351</v>
+        <v>0.7049244339988123</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.979132031591871</v>
+        <v>-3.034279917017246</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04756915711966781</v>
-      </c>
-      <c r="K6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="10" t="inlineStr">
-        <is>
-          <t>Medium</t>
+        <v>0.007074152094560787</v>
+      </c>
+      <c r="K6" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="9" t="inlineStr">
+        <is>
+          <t>Large</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="N6" s="5" t="n">
-        <v>3.142857142857143</v>
+        <v>4.8</v>
+      </c>
+      <c r="N6" s="10" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="7">
@@ -836,7 +836,7 @@
         <v>2.436716506112223</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>0</v>
@@ -845,15 +845,15 @@
         <v>-1.317562509933444</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9209922701055917</v>
+        <v>0.7705574171442228</v>
       </c>
       <c r="I7" t="n">
-        <v>-3.485942738065964</v>
+        <v>-4.166498491037911</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006523834583348492</v>
-      </c>
-      <c r="K7" s="6" t="b">
+        <v>0.001212096040808714</v>
+      </c>
+      <c r="K7" s="8" t="b">
         <v>1</v>
       </c>
       <c r="L7" s="11" t="inlineStr">
@@ -864,8 +864,8 @@
       <c r="M7" s="2" t="n">
         <v>4.3</v>
       </c>
-      <c r="N7" s="5" t="n">
-        <v>3.142857142857143</v>
+      <c r="N7" s="10" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="8">
@@ -884,27 +884,27 @@
         <v>2.604842847254027</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>2.571428571428572</v>
+        <v>2.3</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2251445479836814</v>
+        <v>-0.3293460631402316</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9845380540342235</v>
+        <v>0.8237236344120805</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.5956764830068697</v>
+        <v>-1.041483697932759</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2865795267040163</v>
+        <v>0.1624095645184503</v>
       </c>
       <c r="K8" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="L8" s="12" t="inlineStr">
+      <c r="L8" s="6" t="inlineStr">
         <is>
           <t>Small</t>
         </is>
@@ -912,8 +912,8 @@
       <c r="M8" s="2" t="n">
         <v>4.9</v>
       </c>
-      <c r="N8" s="5" t="n">
-        <v>3.142857142857143</v>
+      <c r="N8" s="12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -932,7 +932,7 @@
         <v>2.458789353760655</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>0</v>
@@ -941,15 +941,15 @@
         <v>-1.284329107742469</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9293350223348444</v>
+        <v>0.7775374644457166</v>
       </c>
       <c r="I9" t="n">
-        <v>-3.398015420648054</v>
+        <v>-4.061405245717999</v>
       </c>
       <c r="J9" t="n">
-        <v>0.007265699366264177</v>
-      </c>
-      <c r="K9" s="6" t="b">
+        <v>0.001417980980143374</v>
+      </c>
+      <c r="K9" s="8" t="b">
         <v>1</v>
       </c>
       <c r="L9" s="11" t="inlineStr">
@@ -960,8 +960,8 @@
       <c r="M9" s="2" t="n">
         <v>4.8</v>
       </c>
-      <c r="N9" s="5" t="n">
-        <v>3.142857142857143</v>
+      <c r="N9" s="12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -980,36 +980,36 @@
         <v>2.414284972786884</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.4578014486081555</v>
+        <v>-0.1264404000917763</v>
       </c>
       <c r="H10" t="n">
-        <v>0.912513947433491</v>
+        <v>0.7634639434724186</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.211228782862296</v>
+        <v>-0.3998396525529762</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1356721871696142</v>
+        <v>0.3492990206907852</v>
       </c>
       <c r="K10" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="L10" s="12" t="inlineStr">
-        <is>
-          <t>Small</t>
+      <c r="L10" s="4" t="inlineStr">
+        <is>
+          <t>Very small</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
         <v>4.8</v>
       </c>
-      <c r="N10" s="5" t="n">
-        <v>3.142857142857143</v>
+      <c r="N10" s="10" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="11">
@@ -1028,36 +1028,36 @@
         <v>2.240333995992646</v>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>1.571428571428571</v>
+        <v>2.5</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.5671818103917637</v>
+        <v>-0.1527027951054749</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8467666581600165</v>
+        <v>0.7084558146843299</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.500622018455997</v>
+        <v>-0.4828886376073124</v>
       </c>
       <c r="J11" t="n">
-        <v>0.09206230105601441</v>
+        <v>0.3203519598824017</v>
       </c>
       <c r="K11" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="L11" s="10" t="inlineStr">
-        <is>
-          <t>Medium</t>
+      <c r="L11" s="4" t="inlineStr">
+        <is>
+          <t>Very small</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
         <v>4.4</v>
       </c>
-      <c r="N11" s="8" t="n">
-        <v>2.857142857142857</v>
+      <c r="N11" s="12" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
